--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434122.3618560132</v>
+        <v>503355.8407232188</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009822</v>
+        <v>525495.3633390869</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11783336.69528065</v>
+        <v>13225332.04440388</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8116197.291087538</v>
+        <v>7464956.381276745</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>13.59893063883448</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>237.3811362441418</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>38.58598565041624</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>65.50289846948323</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>97.08446202703749</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.11186662957356</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>128.7140313794312</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>159.8350691069756</v>
       </c>
       <c r="W13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>310.7003888582948</v>
+        <v>263.2420339516671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4.097100052852013</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>16.9794054976115</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>263.2420339516671</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826734</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663109</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9118361363319</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.4657168318154</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>239.4050760364875</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>159.8350691069755</v>
       </c>
       <c r="T16" t="n">
-        <v>131.0102864828577</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>155.8903435161421</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>107.3013038024369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>2.069067309068746</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888683</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>128.0537032279751</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>249.3557051799028</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>38.19053515138887</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325221</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>2.018090981545374</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.157775988812782</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>72.32650399380537</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>91.54126986570924</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.5310119231965</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.44957722103737</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>136.8697052971877</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2699,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>23.32897990642496</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>249.1782555802293</v>
       </c>
       <c r="X29" t="n">
-        <v>199.6289396988171</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>134.5039760698513</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>73.25540345915647</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>149.8794763036715</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>18.28928943979423</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>373.0576360687138</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>238.463128590769</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>326.6451754880395</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>54.89632529172481</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>274.487665874544</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.8613066552054</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>219.182555476476</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.91544265059211</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>271.0051270862012</v>
+        <v>203.0250898397314</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>16.91544265059197</v>
+        <v>94.6392697836404</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4418,16 +4418,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>146.3865722772137</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4655,10 +4655,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="7">
@@ -4752,10 +4752,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>726.1056462496665</v>
+        <v>751.6640678800766</v>
       </c>
       <c r="U9" t="n">
-        <v>497.8820279860555</v>
+        <v>751.6640678800766</v>
       </c>
       <c r="V9" t="n">
-        <v>262.7299197543128</v>
+        <v>751.6640678800766</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="10">
@@ -4983,28 +4983,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>579.9844679696339</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C11" t="n">
-        <v>579.9844679696339</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D11" t="n">
-        <v>579.9844679696339</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E11" t="n">
-        <v>579.9844679696339</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F11" t="n">
-        <v>301.0384945329112</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412869</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>563.3128681098034</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>785.5101925369343</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>950.1371873885157</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491931</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809422</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>843.9662583320093</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>619.0259954159492</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>619.0259954159492</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="X11" t="n">
-        <v>825.6800813726992</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="Y11" t="n">
-        <v>825.6800813726992</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181.329976101644</v>
+        <v>656.6735125174404</v>
       </c>
       <c r="C12" t="n">
-        <v>181.329976101644</v>
+        <v>656.6735125174404</v>
       </c>
       <c r="D12" t="n">
-        <v>181.329976101644</v>
+        <v>507.7391028561891</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618844</v>
+        <v>507.7391028561891</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>24.95018035683225</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>158.2210505399126</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6478494291521</v>
+        <v>339.9440834239269</v>
       </c>
       <c r="M12" t="n">
-        <v>679.042797994484</v>
+        <v>600.5536970360774</v>
       </c>
       <c r="N12" t="n">
-        <v>907.7419348121334</v>
+        <v>600.5536970360774</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>860.9667611285698</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809422</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>954.903022648045</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>954.903022648045</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>954.903022648045</v>
       </c>
       <c r="U12" t="n">
-        <v>1086.331240032075</v>
+        <v>954.903022648045</v>
       </c>
       <c r="V12" t="n">
-        <v>851.1791318003322</v>
+        <v>954.903022648045</v>
       </c>
       <c r="W12" t="n">
-        <v>596.9417750721307</v>
+        <v>824.8888495375083</v>
       </c>
       <c r="X12" t="n">
-        <v>389.0902748665978</v>
+        <v>824.8888495375083</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.329976101644</v>
+        <v>824.8888495375083</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492715</v>
+        <v>54.48163939360315</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160687</v>
+        <v>100.1098670955243</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754623</v>
+        <v>180.234164571649</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031359</v>
+        <v>182.5089274706542</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031359</v>
+        <v>182.5089274706542</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031359</v>
+        <v>182.5089274706542</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>182.5089274706542</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>182.5089274706542</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>182.5089274706542</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618844</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1525.481037796843</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="C14" t="n">
-        <v>1156.518520856432</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="D14" t="n">
-        <v>1156.518520856432</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="E14" t="n">
-        <v>770.7302682581874</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="F14" t="n">
-        <v>770.7302682581874</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="G14" t="n">
-        <v>352.0803941817595</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="H14" t="n">
-        <v>38.2416175572193</v>
+        <v>25.19784761800409</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2416175572193</v>
+        <v>25.19784761800409</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827155</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977702</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480055</v>
+        <v>330.2546714142366</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640706</v>
+        <v>563.3128681098032</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.87823793897</v>
+        <v>785.510192536934</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.08204165388</v>
+        <v>950.1371873885154</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250547</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860965</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860965</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860965</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T14" t="n">
-        <v>1912.080877860965</v>
+        <v>828.0278728906083</v>
       </c>
       <c r="U14" t="n">
-        <v>1912.080877860965</v>
+        <v>574.150851053303</v>
       </c>
       <c r="V14" t="n">
-        <v>1912.080877860965</v>
+        <v>556.9999364092509</v>
       </c>
       <c r="W14" t="n">
-        <v>1912.080877860965</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="X14" t="n">
-        <v>1912.080877860965</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="Y14" t="n">
-        <v>1912.080877860965</v>
+        <v>291.0988920136275</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>184.7761755303343</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C15" t="n">
-        <v>184.7761755303343</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D15" t="n">
-        <v>184.7761755303343</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E15" t="n">
-        <v>184.7761755303343</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F15" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G15" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H15" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J15" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K15" t="n">
-        <v>235.3935185137493</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L15" t="n">
-        <v>561.8929756923567</v>
+        <v>261.662890610996</v>
       </c>
       <c r="M15" t="n">
-        <v>994.8816638756009</v>
+        <v>522.2725042231465</v>
       </c>
       <c r="N15" t="n">
-        <v>1290.000073167518</v>
+        <v>782.8821178352969</v>
       </c>
       <c r="O15" t="n">
-        <v>1644.536891948533</v>
+        <v>1043.295181927789</v>
       </c>
       <c r="P15" t="n">
-        <v>1912.080877860965</v>
+        <v>1043.295181927789</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860965</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.076492680897</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S15" t="n">
-        <v>1674.085213826037</v>
+        <v>880.4795283993094</v>
       </c>
       <c r="T15" t="n">
-        <v>1473.727085388633</v>
+        <v>678.4944708143853</v>
       </c>
       <c r="U15" t="n">
-        <v>1245.533311513551</v>
+        <v>678.4944708143853</v>
       </c>
       <c r="V15" t="n">
-        <v>1022.840668249091</v>
+        <v>678.4944708143853</v>
       </c>
       <c r="W15" t="n">
-        <v>768.6033115208891</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X15" t="n">
-        <v>560.7518113153562</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y15" t="n">
-        <v>352.9915125504024</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727379</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473009</v>
+        <v>54.48163939360312</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519019</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922406</v>
+        <v>150.0877739486501</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856834</v>
+        <v>180.2341645716488</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041372</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041372</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041372</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041372</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="T16" t="n">
-        <v>327.6587875941799</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="U16" t="n">
-        <v>327.6587875941799</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="V16" t="n">
-        <v>327.6587875941799</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="W16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="X16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.2416175572193</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>882.8926947117852</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.512263598976</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="W17" t="n">
-        <v>1364.743608328862</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="X17" t="n">
-        <v>991.2778500677821</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y17" t="n">
-        <v>882.8926947117852</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>556.2891128075826</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>554.1991458287252</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>394.9616908232698</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>838.129241226138</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167582</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>730.7421420887096</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>500.1394333084171</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C19" t="n">
-        <v>331.2032503805102</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D19" t="n">
-        <v>331.2032503805102</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E19" t="n">
-        <v>183.2901567981171</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064344</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X19" t="n">
-        <v>500.1394333084171</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y19" t="n">
-        <v>500.1394333084171</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>739.4034003911121</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="C20" t="n">
-        <v>739.4034003911121</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="D20" t="n">
-        <v>381.1377017843616</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332392</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942546</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.512263598976</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="W20" t="n">
-        <v>1364.743608328861</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="X20" t="n">
-        <v>991.2778500677816</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="Y20" t="n">
-        <v>991.2778500677816</v>
+        <v>787.1037832399832</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641985</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598704</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>1087.841318719834</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.714576167582</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>605.9196570867432</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>398.0681568812104</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>190.3078581162565</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.1897464970881</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C22" t="n">
-        <v>359.1897464970881</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D22" t="n">
-        <v>209.0731070847524</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E22" t="n">
-        <v>200.8329293182748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y22" t="n">
-        <v>359.1897464970881</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1289.01781586839</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C23" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
         <v>471.9067899221776</v>
@@ -5995,7 +5995,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W23" t="n">
-        <v>1662.48357412947</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="X23" t="n">
-        <v>1289.01781586839</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y23" t="n">
-        <v>1289.01781586839</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="24">
@@ -6050,13 +6050,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6080,10 +6080,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>667.7988452409105</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C25" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>667.7988452409105</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X25" t="n">
-        <v>667.7988452409105</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y25" t="n">
-        <v>667.7988452409105</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1150.38930518072</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="C26" t="n">
-        <v>1150.38930518072</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D26" t="n">
-        <v>792.1236065739691</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739691</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V26" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1528.349585887292</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1154.883827626212</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y26" t="n">
-        <v>1154.883827626212</v>
+        <v>797.9969330253592</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>77.50760798847048</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T28" t="n">
-        <v>598.0446400632119</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>259.1560728187102</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036444</v>
+        <v>259.1560728187102</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>259.1560728187102</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>259.1560728187102</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>781.1711973675267</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C29" t="n">
-        <v>412.2086804271149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2112.324418312743</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>1759.555763042629</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="X29" t="n">
-        <v>1557.91036940746</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y29" t="n">
-        <v>1167.771037431648</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6557,7 +6557,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
@@ -6566,19 +6566,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
         <v>53.94298182036445</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1568.149526959219</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C32" t="n">
-        <v>1199.187010018807</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D32" t="n">
-        <v>840.9213114120569</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E32" t="n">
-        <v>455.1330588138126</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.057514205145</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W32" t="n">
-        <v>1958.288858935031</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X32" t="n">
-        <v>1958.288858935031</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y32" t="n">
-        <v>1568.149526959219</v>
+        <v>1404.543549400788</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6788,40 +6788,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C34" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D34" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E34" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>576.7355737986852</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>576.7355737986852</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>576.7355737986852</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X34" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y34" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1219.679656148628</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C35" t="n">
-        <v>850.7171392082162</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6943,13 +6943,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6967,22 +6967,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V35" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W35" t="n">
-        <v>2369.884586449641</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X35" t="n">
-        <v>1996.418828188561</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y35" t="n">
-        <v>1606.27949621275</v>
+        <v>1320.425425970681</v>
       </c>
     </row>
     <row r="36">
@@ -6998,10 +6998,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
@@ -7010,31 +7010,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1310.833184497836</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C38" t="n">
-        <v>1310.833184497836</v>
+        <v>1509.552794371412</v>
       </c>
       <c r="D38" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>1663.60183976795</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>1310.833184497836</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1310.833184497836</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1310.833184497836</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.8791647482714</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>450.8687156462887</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>450.8687156462887</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>450.8687156462887</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X40" t="n">
-        <v>222.8791647482714</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.8791647482714</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1954.141365880777</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C41" t="n">
-        <v>1954.141365880777</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D41" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E41" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X41" t="n">
-        <v>2642.120401548716</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="Y41" t="n">
-        <v>2251.981069572904</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,46 +7487,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C43" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E43" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7578,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V43" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W43" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X43" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y43" t="n">
-        <v>348.7460229006679</v>
+        <v>217.9192350259436</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1251.855211652197</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C44" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2302.336936304455</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.59438369213</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="X44" t="n">
-        <v>2028.59438369213</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y44" t="n">
-        <v>1638.455051716319</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V46" t="n">
-        <v>711.0426784987656</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>421.6255084618049</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>421.6255084618049</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,7 +8066,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8537,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>311.3650978177537</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324505</v>
+        <v>392.833774309385</v>
       </c>
       <c r="N12" t="n">
-        <v>342.759188933736</v>
+        <v>118.4674613291451</v>
       </c>
       <c r="O12" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>133.6630807868108</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>84.40768042974392</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236086</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>392.833774309385</v>
       </c>
       <c r="N15" t="n">
-        <v>312.638117316339</v>
+        <v>381.7094952808122</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368071</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.65476256012204</v>
+        <v>143.4337412705273</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>266.0730132741479</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747073</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719075</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>136.5441990361994</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10205,10 +10205,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22874,13 +22874,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>123.7445865243761</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>14.31384691677781</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22992,13 +22992,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23111,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,16 +23150,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>161.5787430444054</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23223,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>139.4951843944459</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.097100052851972</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846774</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>106.4890667268019</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>320.7350401865704</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8245596126202</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>122.9809517814884</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>17.44799951871605</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>82.6870224659891</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>223.2933741908972</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>92.30257421685238</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H14" t="n">
-        <v>20.17829533696005</v>
+        <v>75.28528753921125</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463315</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492408</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215389</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>310.7728529725234</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>85.9989347657459</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23585,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8944188046378</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H15" t="n">
-        <v>107.898099562911</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493655</v>
+        <v>87.69233988828961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V15" t="n">
-        <v>12.33487031760987</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>12.28990712443209</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6144703808229</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153679</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270812</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J16" t="n">
-        <v>66.7399953978163</v>
+        <v>90.4251624583914</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>17.44799951871607</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802111</v>
+        <v>82.68702246598913</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191054</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4550733994452</v>
+        <v>63.45830508392174</v>
       </c>
       <c r="T16" t="n">
-        <v>95.32658276825231</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2984925031653</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>171.8619149539929</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>278.9366348536167</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>145.37599825557</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23892,31 +23892,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>17.36734479495613</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>133.3781364835777</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>311.0504335660241</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.6768921793742</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24132,28 +24132,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>138.2761866577564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>292.9463877772022</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>257.6996988517038</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24423,10 +24423,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>192.4108057479596</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>261.2070929197285</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>378.2842644424432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>249.3682333588658</v>
       </c>
     </row>
     <row r="27">
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>143.9178411922029</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,10 +24651,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,7 +24733,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>100.0627131371837</v>
       </c>
       <c r="X29" t="n">
-        <v>170.1021609796519</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>38.46332039683776</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24894,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>248.2298655936293</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>333.620642282555</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>50.78177823929092</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>136.4023979383062</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>330.9516792776188</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>13.18030258733978</v>
       </c>
     </row>
     <row r="36">
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25368,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>183.9473495801921</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>116.219913029914</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>1.107082982095392</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>112.350495806903</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25605,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>11.79420836743373</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.87253500827518</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25687,16 +25687,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>150.5485452019931</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>162.9165375313452</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>88.69405058113833</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25845,16 +25845,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>78.23584163121177</v>
+        <v>146.2158788776816</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>235.222200673236</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482044.5851760797</v>
+        <v>482044.5851760795</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482044.5851760798</v>
+        <v>482044.5851760797</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512428.0083231876</v>
+        <v>501827.5072336532</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>669264.6144669291</v>
+        <v>501827.5072336529</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821743.4061492388</v>
+        <v>512428.0083231875</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821743.4061492389</v>
+        <v>512428.0083231876</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821743.4061492388</v>
+        <v>821743.4061492389</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821743.4061492389</v>
+        <v>821743.4061492388</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821743.406149239</v>
+        <v>821743.4061492388</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821743.406149239</v>
+        <v>821743.4061492388</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821743.4061492389</v>
+        <v>821743.406149239</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821743.4061492388</v>
+        <v>821743.4061492389</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
+        <v>130005.1129387484</v>
+      </c>
+      <c r="F2" t="n">
+        <v>130005.1129387483</v>
+      </c>
+      <c r="G2" t="n">
         <v>132886.3748292383</v>
       </c>
-      <c r="F2" t="n">
-        <v>175466.9880515815</v>
-      </c>
-      <c r="G2" t="n">
-        <v>216864.4575118182</v>
-      </c>
       <c r="H2" t="n">
-        <v>216864.4575118182</v>
+        <v>132886.3748292383</v>
       </c>
       <c r="I2" t="n">
         <v>216864.4575118182</v>
@@ -26340,13 +26340,13 @@
         <v>216864.4575118182</v>
       </c>
       <c r="K2" t="n">
-        <v>216864.4575118182</v>
+        <v>216864.4575118181</v>
       </c>
       <c r="L2" t="n">
         <v>216864.4575118182</v>
       </c>
       <c r="M2" t="n">
-        <v>216864.4575118181</v>
+        <v>216864.4575118183</v>
       </c>
       <c r="N2" t="n">
         <v>216864.4575118182</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923565</v>
+        <v>25125.73635942227</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689314</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328039</v>
+        <v>12875.63425019384</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>363855.276088607</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213634</v>
+        <v>5539.242983423146</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138632</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112678</v>
+        <v>3107.882466482921</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
+        <v>25338.71079138016</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25338.71079138017</v>
+      </c>
+      <c r="G4" t="n">
         <v>25384.5047005482</v>
       </c>
-      <c r="F4" t="n">
-        <v>26247.37101837719</v>
-      </c>
-      <c r="G4" t="n">
-        <v>27086.83710496504</v>
-      </c>
       <c r="H4" t="n">
-        <v>27086.83710496504</v>
+        <v>25384.5047005482</v>
       </c>
       <c r="I4" t="n">
         <v>27086.83710496504</v>
@@ -26478,22 +26478,22 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>16506.80740683338</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16506.80740683338</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17553.77951678014</v>
+      </c>
+      <c r="H5" t="n">
         <v>17553.77951678015</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33615.28060221566</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41930.47472946982</v>
+        <v>-30934.2651714334</v>
       </c>
       <c r="C6" t="n">
-        <v>38838.95680207788</v>
+        <v>49835.1663601143</v>
       </c>
       <c r="D6" t="n">
-        <v>38838.95680207787</v>
+        <v>49835.1663601143</v>
       </c>
       <c r="E6" t="n">
-        <v>39652.25689134972</v>
+        <v>61847.95470937686</v>
       </c>
       <c r="F6" t="n">
-        <v>-88418.80078111103</v>
+        <v>86973.69106879907</v>
       </c>
       <c r="G6" t="n">
-        <v>-50674.36073517943</v>
+        <v>75905.76110258362</v>
       </c>
       <c r="H6" t="n">
-        <v>134477.7285976245</v>
+        <v>88781.39535277744</v>
       </c>
       <c r="I6" t="n">
-        <v>134477.7285976245</v>
+        <v>-223915.9751197452</v>
       </c>
       <c r="J6" t="n">
-        <v>71417.78599851826</v>
+        <v>76879.35836975552</v>
       </c>
       <c r="K6" t="n">
-        <v>134477.7285976244</v>
+        <v>139939.3009688617</v>
       </c>
       <c r="L6" t="n">
-        <v>134477.7285976245</v>
+        <v>139939.3009688618</v>
       </c>
       <c r="M6" t="n">
-        <v>125720.1456024108</v>
+        <v>134400.0579854387</v>
       </c>
       <c r="N6" t="n">
-        <v>85035.85673623823</v>
+        <v>139939.3009688618</v>
       </c>
       <c r="O6" t="n">
-        <v>87245.86595649767</v>
+        <v>136831.4185023789</v>
       </c>
       <c r="P6" t="n">
-        <v>134477.7285976245</v>
+        <v>139939.3009688618</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912533</v>
+        <v>23.01338268678991</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435316</v>
+        <v>23.01338268678979</v>
       </c>
       <c r="G3" t="n">
+        <v>35.02126071912529</v>
+      </c>
+      <c r="H3" t="n">
+        <v>35.02126071912534</v>
+      </c>
+      <c r="I3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="H3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="I3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26798,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>263.2420339516672</v>
+      </c>
+      <c r="F4" t="n">
+        <v>263.2420339516671</v>
+      </c>
+      <c r="G4" t="n">
+        <v>276.1565137023554</v>
+      </c>
+      <c r="H4" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>478.0202194652413</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912533</v>
+        <v>23.01338268678991</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244062</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735551</v>
+        <v>12.0078780323355</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>22.22774507400811</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628858</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893143</v>
+        <v>12.91447975068832</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>22.22774507400823</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628858</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893143</v>
+        <v>12.91447975068843</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>22.22774507400811</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628858</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893143</v>
+        <v>12.91447975068832</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.09251611130367797</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4418552214663</v>
+        <v>0.9474806248887923</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760119</v>
+        <v>3.566727381035049</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>7.852189301760546</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884599</v>
+        <v>11.76839629324524</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470702</v>
+        <v>14.59973623455518</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677232</v>
+        <v>16.24501962895196</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840334</v>
+        <v>16.50788103019353</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081217</v>
+        <v>15.58792394841758</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411506</v>
+        <v>13.30393245060803</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796963</v>
+        <v>9.990699214545062</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870379</v>
+        <v>5.811515176679666</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847512</v>
+        <v>2.108210886332564</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.4049892772318505</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.007401288904294237</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.04950048351498208</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.4780704592104849</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727678</v>
+        <v>1.70429296312548</v>
       </c>
       <c r="J12" t="n">
-        <v>7.11691487877999</v>
+        <v>4.676710155246619</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335884</v>
+        <v>7.993242550750418</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>10.7479010368824</v>
       </c>
       <c r="M12" t="n">
-        <v>19.0865870919233</v>
+        <v>12.5422935643005</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833409</v>
+        <v>12.87425075418826</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>11.77742425104049</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>9.452421277523202</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164375</v>
+        <v>6.318693299210696</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263569</v>
+        <v>3.073372125605643</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504676</v>
+        <v>0.9194497705524077</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.1995216857467917</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.003256610757564612</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.04149954254994902</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.3689686601259107</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227322</v>
+        <v>1.248004425047558</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174388</v>
+        <v>2.934017658281395</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170845</v>
+        <v>4.821492307166803</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894684</v>
+        <v>6.169850171471513</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948818</v>
+        <v>6.505241928988826</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394049</v>
+        <v>6.350561815848113</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179686</v>
+        <v>5.865771705150978</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938413</v>
+        <v>5.019181037132014</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587925</v>
+        <v>3.475020785705277</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390063</v>
+        <v>1.865970340473162</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025627</v>
+        <v>0.7232238460750204</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.1773162272588731</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.002263611411815404</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714831</v>
+        <v>0.09251611130367748</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512329</v>
+        <v>0.9474806248887874</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407439</v>
+        <v>3.56672738103503</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991785</v>
+        <v>7.852189301760505</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369458</v>
+        <v>11.76839629324517</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369462</v>
+        <v>14.5997362345551</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961222</v>
+        <v>16.24501962895187</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885455</v>
+        <v>16.50788103019345</v>
       </c>
       <c r="O14" t="n">
-        <v>141.423084416426</v>
+        <v>15.5879239484175</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107237</v>
+        <v>13.30393245060796</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840118</v>
+        <v>9.990699214545009</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622559</v>
+        <v>5.811515176679636</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470644</v>
+        <v>2.108210886332553</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636419</v>
+        <v>0.4049892772318484</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771863</v>
+        <v>0.007401288904294197</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728793</v>
+        <v>0.04950048351498182</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33734467358544</v>
+        <v>0.4780704592104824</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647852</v>
+        <v>1.704292963125471</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692278</v>
+        <v>4.676710155246594</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130569</v>
+        <v>7.993242550750376</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995785</v>
+        <v>10.74790103688235</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682247</v>
+        <v>12.54229356430043</v>
       </c>
       <c r="N15" t="n">
-        <v>116.802998092163</v>
+        <v>12.87425075418819</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364166</v>
+        <v>11.77742425104043</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099131</v>
+        <v>9.452421277523152</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589947</v>
+        <v>6.318693299210662</v>
       </c>
       <c r="R15" t="n">
-        <v>27.8834928243758</v>
+        <v>3.073372125605627</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526941</v>
+        <v>0.919449770552403</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791561</v>
+        <v>0.1995216857467907</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0295459446429526</v>
+        <v>0.003256610757564595</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358766</v>
+        <v>0.0414995425499488</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071705</v>
+        <v>0.3689686601259087</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017709</v>
+        <v>1.248004425047552</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885647</v>
+        <v>2.93401765828138</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351365</v>
+        <v>4.821492307166778</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779206</v>
+        <v>6.16985017147148</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886745</v>
+        <v>6.505241928988791</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495195</v>
+        <v>6.350561815848079</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438737</v>
+        <v>5.865771705150948</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061545</v>
+        <v>5.019181037131988</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367327</v>
+        <v>3.475020785705259</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806405</v>
+        <v>1.865970340473152</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527047</v>
+        <v>0.7232238460750166</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171472</v>
+        <v>0.1773162272588721</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559329</v>
+        <v>0.002263611411815392</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666594</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751702</v>
+        <v>196.4945358150184</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223321</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>224.4417418455868</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118708</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.930118828988762</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>134.61704058897</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>183.558619074762</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023555</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="N12" t="n">
-        <v>231.0092291087368</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>263.0434990833256</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>193.9407825031301</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721082</v>
+        <v>33.75987543178765</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>46.08911889082941</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062264</v>
+        <v>50.4827341950767</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421936</v>
+        <v>30.45089961919065</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831901</v>
+        <v>2.297740302025503</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530533</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631299</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174094</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616819</v>
+        <v>235.4123198945116</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039388</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574846</v>
+        <v>166.2898937894761</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269368</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385638</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995253</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935428</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962063</v>
+        <v>263.2420339516671</v>
       </c>
       <c r="N15" t="n">
-        <v>298.0994033251687</v>
+        <v>263.2420339516671</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687017</v>
+        <v>263.0434990833255</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504165982</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>9.770660483716462</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.4740057576308</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>83.5666418081082</v>
+        <v>33.75987543178762</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070803</v>
+        <v>46.08911889082938</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841805</v>
+        <v>50.48273419507667</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842704</v>
+        <v>30.45089961919062</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550894</v>
+        <v>2.297740302025476</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>154.3230534491487</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N19" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624587</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>16.95427887837174</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N22" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
         <v>421.5361394435301</v>
@@ -36925,10 +36925,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37156,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
